--- a/data/income_breakdown.xlsx
+++ b/data/income_breakdown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toddf\Documents\New NSS\DA9 Excel\norris_capstone\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F158EC90-E214-4C66-9F69-D4EED35F3A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6F5CF2-FAEA-46C8-8053-01278DB69ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="465" windowWidth="20460" windowHeight="14595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="210" windowWidth="18285" windowHeight="14535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NO MLB Team" sheetId="4" r:id="rId1"/>
@@ -801,10 +801,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255F083A-D9C3-44F3-9ECC-B15D9F27CE36}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,6 +1029,12 @@
         <v>0.68519999999999992</v>
       </c>
     </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <f>AVERAGE(B2:B27)</f>
+        <v>0.5501807692307692</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B27">
     <sortCondition ref="A2:A27"/>
@@ -1039,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1365CFFC-7BA9-462E-992D-071F72712DF1}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,7 +1283,7 @@
         <v>0.58640000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>68</v>
       </c>
@@ -1291,7 +1297,7 @@
         <v>0.57850000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>69</v>
       </c>
@@ -1305,7 +1311,7 @@
         <v>0.65959999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -1319,7 +1325,7 @@
         <v>0.47979999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>72</v>
       </c>
@@ -1333,7 +1339,7 @@
         <v>0.60719999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>74</v>
       </c>
@@ -1347,7 +1353,7 @@
         <v>0.5242</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>75</v>
       </c>
@@ -1361,7 +1367,7 @@
         <v>0.70050000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="36" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>76</v>
       </c>
@@ -1375,7 +1381,7 @@
         <v>0.74340000000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>77</v>
       </c>
@@ -1389,7 +1395,7 @@
         <v>0.72010000000000007</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>79</v>
       </c>
@@ -1403,7 +1409,7 @@
         <v>0.4456</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>80</v>
       </c>
@@ -1417,7 +1423,7 @@
         <v>0.56110000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="36" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>78</v>
       </c>
@@ -1430,8 +1436,9 @@
       <c r="D27" s="2">
         <v>0.68519999999999992</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>82</v>
       </c>
@@ -1445,7 +1452,7 @@
         <v>0.66879999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>83</v>
       </c>
@@ -1459,7 +1466,7 @@
         <v>0.59770000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>85</v>
       </c>
@@ -1473,7 +1480,7 @@
         <v>0.44380000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>86</v>
       </c>
@@ -1487,7 +1494,7 @@
         <v>0.50749999999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>88</v>
       </c>

--- a/data/income_breakdown.xlsx
+++ b/data/income_breakdown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toddf\Documents\New NSS\DA9 Excel\norris_capstone\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6F5CF2-FAEA-46C8-8053-01278DB69ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6AA259-089B-42C5-BBAF-D363A45A4C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="210" windowWidth="18285" windowHeight="14535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16440" yWindow="795" windowWidth="12090" windowHeight="13965" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NO MLB Team" sheetId="4" r:id="rId1"/>
@@ -804,7 +804,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
